--- a/SpeCalcCode/SpeCalc/App_Data/SpecificationTrans.xlsx
+++ b/SpeCalcCode/SpeCalc/App_Data/SpecificationTrans.xlsx
@@ -600,8 +600,9 @@
     <col min="1" max="1" width="7" style="8" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="8" customWidth="1"/>
     <col min="3" max="3" width="18.140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="8" customWidth="1"/>
-    <col min="5" max="6" width="18.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="54.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="8" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" style="8" customWidth="1"/>
     <col min="8" max="8" width="34.7109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" style="8" customWidth="1"/>
